--- a/ejemplos_api/sct.xlsx
+++ b/ejemplos_api/sct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,36 @@
           <t>presentacion_ddjj</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ubicacion_deuda</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_deuda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ubicacion_vencimientos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_vencimientos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ubicacion_ddjj</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_ddjj</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +536,36 @@
           <t>SI</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>./Descargas</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>deuda-demo</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>./Descargas</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>vencimientos-demo</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>./Descargas</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>ddjj-demo</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +601,36 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./Descargas</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>deuda-no</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>./Descargas</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>vencimientos-no</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>./Descargas</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ddjj-no</t>
         </is>
       </c>
     </row>

--- a/ejemplos_api/sct.xlsx
+++ b/ejemplos_api/sct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,30 +471,45 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>excel</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>csv</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>pdf</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>ubicacion_deuda</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>nombre_deuda</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ubicacion_vencimientos</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>nombre_vencimientos</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ubicacion_ddjj</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>nombre_ddjj</t>
         </is>
@@ -538,30 +553,45 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>./Descargas</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>deuda-demo</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>./Descargas</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>vencimientos-demo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>./Descargas</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>ddjj-demo</t>
         </is>
@@ -605,30 +635,45 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>./Descargas</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>deuda-no</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>./Descargas</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>vencimientos-no</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>./Descargas</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>ddjj-no</t>
         </is>

--- a/ejemplos_api/sct.xlsx
+++ b/ejemplos_api/sct.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$P$3</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +30,22 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00002060"/>
+        <bgColor rgb="00002060"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,9 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -432,84 +446,102 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="16" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>procesar</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>cuit_login</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>cuit_representado</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>clave</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>deuda</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>vencimientos</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>presentacion_ddjj</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>excel</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>csv</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>pdf</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ubicacion_deuda</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>nombre_deuda</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>ubicacion_vencimientos</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>nombre_vencimientos</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>ubicacion_ddjj</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>nombre_ddjj</t>
         </is>
@@ -680,6 +712,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>